--- a/Accounts-Schedules/تدريب طلبات يوم 20-10-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات يوم 20-10-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>هايبر 1</t>
   </si>
   <si>
     <t>تبيان خالد</t>
@@ -527,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,12 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +956,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,16 +980,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1001,89 +998,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,13 +1091,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,244 +1480,244 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="14.75" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.75" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.75" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.75" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>1000216194</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="14.75" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="14.75" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" ht="14.75" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" ht="14.75" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" ht="14.75" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" ht="14.75" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" ht="14.75" spans="1:4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>1062040643</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" ht="14.75" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>1126313056</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" ht="14.75" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" ht="14.75" spans="1:4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,7 +1791,7 @@
         <v>62</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>36</v>
@@ -1811,13 +1811,13 @@
         <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>52</v>
@@ -1837,10 +1837,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>10</v>
@@ -1863,10 +1863,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
@@ -1889,10 +1889,10 @@
         <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>6</v>
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>49</v>
@@ -1941,13 +1941,13 @@
         <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>55</v>
@@ -1967,7 +1967,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -1993,10 +1993,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>42</v>
@@ -2019,13 +2019,13 @@
         <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>53</v>
@@ -2045,7 +2045,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
@@ -2091,13 +2091,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
@@ -2123,10 +2123,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
@@ -2149,10 +2149,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>27</v>
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>47</v>
@@ -2201,10 +2201,10 @@
         <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="3" t="s">
         <v>44</v>
       </c>
@@ -2223,10 +2223,10 @@
         <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="3" t="s">
         <v>51</v>
       </c>
